--- a/S_A MPS FESTO_AKIM.xlsx
+++ b/S_A MPS FESTO_AKIM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akim\Documents\LAB AUTO\I4_0\AR\REPO_GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32054622-BB3F-4348-BE64-45CB3D2C7995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3ACFDA-2597-4CE1-B2D2-170E85578635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{0CAA95B6-6E25-4EA0-9167-AD614239DF51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="145">
   <si>
     <t>SORTING - CLASIFICACION</t>
   </si>
@@ -459,10 +459,7 @@
     <t>tz</t>
   </si>
   <si>
-    <t>http://ip.festo-didactic.com/InfoPortal/DataSheets/EN/150371.pdf</t>
-  </si>
-  <si>
-    <t>http://ip.festo-didactic.com/InfoPortal/DataSheets/EN/537753.pdf</t>
+    <t>https://www.festo.com/us/en/a/download-document/datasheet/152619</t>
   </si>
 </sst>
 </file>
@@ -681,42 +678,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,32 +690,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1073,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D88222-EFC2-4940-A561-3CF6F68EF468}">
   <dimension ref="B1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,28 +1083,28 @@
     <col min="7" max="8" width="7.140625" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="62.5703125" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="62.5703125" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="24" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
         <v>29</v>
@@ -1115,18 +1112,18 @@
       <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1135,7 +1132,7 @@
       <c r="D4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="9" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="1"/>
@@ -1148,15 +1145,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="10" t="s">
         <v>42</v>
       </c>
       <c r="F5" s="1"/>
@@ -1169,15 +1166,15 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="11"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="23"/>
       <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="10" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="1"/>
@@ -1190,15 +1187,15 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="11"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="10" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="1"/>
@@ -1210,34 +1207,31 @@
       <c r="J7" t="s">
         <v>131</v>
       </c>
-      <c r="K7" s="34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="11"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="23"/>
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="10" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="10" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="1"/>
@@ -1249,34 +1243,31 @@
       <c r="J9" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
       <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="23"/>
       <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="10" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="1"/>
@@ -1288,57 +1279,54 @@
       <c r="J11" t="s">
         <v>133</v>
       </c>
-      <c r="K11" s="34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="23"/>
       <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="23"/>
       <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="10" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
+    <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="11" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1347,22 +1335,22 @@
       <c r="D15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="11"/>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="10" t="s">
         <v>65</v>
       </c>
       <c r="F16" s="1"/>
@@ -1370,14 +1358,14 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="10" t="s">
         <v>66</v>
       </c>
       <c r="F17" s="1"/>
@@ -1385,14 +1373,14 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="11"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="10" t="s">
         <v>67</v>
       </c>
       <c r="F18" s="1"/>
@@ -1400,12 +1388,12 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="10" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="1"/>
@@ -1413,14 +1401,14 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="11"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F20" s="1"/>
@@ -1428,14 +1416,14 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="11"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="10" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="1"/>
@@ -1443,14 +1431,14 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="11"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="10" t="s">
         <v>70</v>
       </c>
       <c r="F22" s="1"/>
@@ -1458,14 +1446,14 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="11" t="s">
         <v>71</v>
       </c>
       <c r="F23" s="1"/>
@@ -1474,19 +1462,19 @@
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="H25" s="27" t="s">
+      <c r="H25" s="14" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1498,15 +1486,15 @@
       <c r="D26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1515,7 +1503,7 @@
       <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="10" t="s">
         <v>74</v>
       </c>
       <c r="F27" s="1"/>
@@ -1527,19 +1515,19 @@
       <c r="J27" t="s">
         <v>139</v>
       </c>
-      <c r="K27" s="34" t="s">
+      <c r="K27" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="11"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="10" t="s">
         <v>75</v>
       </c>
       <c r="F28" s="1"/>
@@ -1551,19 +1539,19 @@
       <c r="J28" t="s">
         <v>139</v>
       </c>
-      <c r="K28" s="34" t="s">
+      <c r="K28" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="11"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="10" t="s">
         <v>76</v>
       </c>
       <c r="F29" s="1"/>
@@ -1572,16 +1560,19 @@
       <c r="I29" t="s">
         <v>126</v>
       </c>
+      <c r="K29" s="19" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="11"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="10" t="s">
         <v>77</v>
       </c>
       <c r="F30" s="1"/>
@@ -1592,14 +1583,14 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="11"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="1" t="s">
         <v>73</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="10" t="s">
         <v>78</v>
       </c>
       <c r="F31" s="1"/>
@@ -1610,14 +1601,14 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="11"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="10" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="1"/>
@@ -1631,12 +1622,12 @@
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="11"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F33" s="1"/>
@@ -1647,14 +1638,14 @@
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="11"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F34" s="1"/>
@@ -1665,14 +1656,14 @@
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="11"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="10" t="s">
         <v>51</v>
       </c>
       <c r="F35" s="1"/>
@@ -1683,14 +1674,14 @@
       </c>
     </row>
     <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="11" t="s">
         <v>52</v>
       </c>
       <c r="F36" s="1"/>
@@ -1701,7 +1692,7 @@
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1710,7 +1701,7 @@
       <c r="D37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="9" t="s">
         <v>82</v>
       </c>
       <c r="F37" s="1"/>
@@ -1718,14 +1709,14 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="11"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="10" t="s">
         <v>83</v>
       </c>
       <c r="F38" s="1"/>
@@ -1733,14 +1724,14 @@
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="22" t="s">
+      <c r="E39" s="10" t="s">
         <v>84</v>
       </c>
       <c r="F39" s="1"/>
@@ -1748,14 +1739,14 @@
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="11"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="10" t="s">
         <v>85</v>
       </c>
       <c r="F40" s="1"/>
@@ -1763,14 +1754,14 @@
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="10" t="s">
         <v>86</v>
       </c>
       <c r="F41" s="1"/>
@@ -1778,14 +1769,14 @@
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="22" t="s">
+      <c r="E42" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F42" s="1"/>
@@ -1793,14 +1784,14 @@
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="22" t="s">
+      <c r="E43" s="10" t="s">
         <v>69</v>
       </c>
       <c r="F43" s="1"/>
@@ -1808,14 +1799,14 @@
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="11"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="22" t="s">
+      <c r="E44" s="10" t="s">
         <v>70</v>
       </c>
       <c r="F44" s="1"/>
@@ -1823,14 +1814,14 @@
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="12"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="11" t="s">
         <v>71</v>
       </c>
       <c r="F45" s="1"/>
@@ -1839,19 +1830,19 @@
     </row>
     <row r="46" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
       <c r="E47" s="28"/>
-      <c r="F47" s="29" t="s">
+      <c r="F47" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="G47" s="29" t="s">
+      <c r="G47" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="15" t="s">
         <v>143</v>
       </c>
     </row>
@@ -1863,15 +1854,15 @@
       <c r="D48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1880,7 +1871,7 @@
       <c r="D49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="10" t="s">
         <v>87</v>
       </c>
       <c r="F49" s="1"/>
@@ -1888,14 +1879,14 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="11"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="10" t="s">
         <v>88</v>
       </c>
       <c r="F50" s="1"/>
@@ -1903,14 +1894,14 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="11"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="22" t="s">
+      <c r="E51" s="10" t="s">
         <v>89</v>
       </c>
       <c r="F51" s="1"/>
@@ -1918,12 +1909,12 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="11"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="1"/>
@@ -1931,12 +1922,12 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="11"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F53" s="1"/>
@@ -1944,14 +1935,14 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="11"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="10" t="s">
         <v>91</v>
       </c>
       <c r="F54" s="1"/>
@@ -1959,14 +1950,14 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="11"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="22" t="s">
+      <c r="E55" s="10" t="s">
         <v>92</v>
       </c>
       <c r="F55" s="1"/>
@@ -1974,14 +1965,14 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="11"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="22" t="s">
+      <c r="E56" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F56" s="1"/>
@@ -1989,14 +1980,14 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="11"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="22" t="s">
+      <c r="E57" s="10" t="s">
         <v>51</v>
       </c>
       <c r="F57" s="1"/>
@@ -2004,14 +1995,14 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="12"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="23" t="s">
+      <c r="E58" s="11" t="s">
         <v>52</v>
       </c>
       <c r="F58" s="1"/>
@@ -2019,7 +2010,7 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -2028,7 +2019,7 @@
       <c r="D59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E59" s="21" t="s">
+      <c r="E59" s="9" t="s">
         <v>94</v>
       </c>
       <c r="F59" s="1"/>
@@ -2036,14 +2027,14 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="11"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="22" t="s">
+      <c r="E60" s="10" t="s">
         <v>98</v>
       </c>
       <c r="F60" s="1"/>
@@ -2051,14 +2042,14 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="11"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="22" t="s">
+      <c r="E61" s="10" t="s">
         <v>95</v>
       </c>
       <c r="F61" s="1"/>
@@ -2066,14 +2057,14 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="11"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="22" t="s">
+      <c r="E62" s="10" t="s">
         <v>96</v>
       </c>
       <c r="F62" s="1"/>
@@ -2081,14 +2072,14 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="11"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E63" s="22" t="s">
+      <c r="E63" s="10" t="s">
         <v>97</v>
       </c>
       <c r="F63" s="1"/>
@@ -2096,14 +2087,14 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="11"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E64" s="22" t="s">
+      <c r="E64" s="10" t="s">
         <v>99</v>
       </c>
       <c r="F64" s="1"/>
@@ -2111,14 +2102,14 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="11"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E65" s="22" t="s">
+      <c r="E65" s="10" t="s">
         <v>100</v>
       </c>
       <c r="F65" s="1"/>
@@ -2126,12 +2117,12 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="11"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="22" t="s">
+      <c r="E66" s="10" t="s">
         <v>19</v>
       </c>
       <c r="F66" s="1"/>
@@ -2139,14 +2130,14 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="11"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F67" s="1"/>
@@ -2154,14 +2145,14 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="11"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="10" t="s">
         <v>69</v>
       </c>
       <c r="F68" s="1"/>
@@ -2169,14 +2160,14 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="11"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E69" s="22" t="s">
+      <c r="E69" s="10" t="s">
         <v>70</v>
       </c>
       <c r="F69" s="1"/>
@@ -2184,14 +2175,14 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="12"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="23" t="s">
+      <c r="E70" s="11" t="s">
         <v>71</v>
       </c>
       <c r="F70" s="1"/>
@@ -2200,19 +2191,19 @@
     </row>
     <row r="71" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="15" t="s">
+      <c r="B72" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="32" t="s">
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="G72" s="32" t="s">
+      <c r="G72" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="H72" s="32" t="s">
+      <c r="H72" s="17" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2224,15 +2215,15 @@
       <c r="D73" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2241,7 +2232,7 @@
       <c r="D74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="10" t="s">
         <v>106</v>
       </c>
       <c r="F74" s="1"/>
@@ -2249,14 +2240,14 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="11"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E75" s="22" t="s">
+      <c r="E75" s="10" t="s">
         <v>108</v>
       </c>
       <c r="F75" s="1"/>
@@ -2264,14 +2255,14 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="11"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="10" t="s">
         <v>109</v>
       </c>
       <c r="F76" s="1"/>
@@ -2279,14 +2270,14 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="11"/>
+      <c r="B77" s="23"/>
       <c r="C77" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="22" t="s">
+      <c r="E77" s="10" t="s">
         <v>110</v>
       </c>
       <c r="F77" s="1"/>
@@ -2294,14 +2285,14 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="11"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E78" s="22" t="s">
+      <c r="E78" s="10" t="s">
         <v>111</v>
       </c>
       <c r="F78" s="1"/>
@@ -2309,14 +2300,14 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="11"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E79" s="10" t="s">
         <v>112</v>
       </c>
       <c r="F79" s="1"/>
@@ -2324,29 +2315,29 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B80" s="11"/>
+      <c r="B80" s="23"/>
       <c r="C80" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D80" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="31" t="s">
+      <c r="E80" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="11"/>
+      <c r="B81" s="23"/>
       <c r="C81" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E81" s="22" t="s">
+      <c r="E81" s="10" t="s">
         <v>50</v>
       </c>
       <c r="F81" s="1"/>
@@ -2354,14 +2345,14 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="11"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="22" t="s">
+      <c r="E82" s="10" t="s">
         <v>51</v>
       </c>
       <c r="F82" s="1"/>
@@ -2369,14 +2360,14 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="12"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E83" s="23" t="s">
+      <c r="E83" s="11" t="s">
         <v>52</v>
       </c>
       <c r="F83" s="1"/>
@@ -2384,7 +2375,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -2393,7 +2384,7 @@
       <c r="D84" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E84" s="21" t="s">
+      <c r="E84" s="9" t="s">
         <v>64</v>
       </c>
       <c r="F84" s="1"/>
@@ -2401,14 +2392,14 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="11"/>
+      <c r="B85" s="23"/>
       <c r="C85" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="22" t="s">
+      <c r="E85" s="10" t="s">
         <v>115</v>
       </c>
       <c r="F85" s="1"/>
@@ -2416,14 +2407,14 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="11"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="22" t="s">
+      <c r="E86" s="10" t="s">
         <v>116</v>
       </c>
       <c r="F86" s="1"/>
@@ -2431,14 +2422,14 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="11"/>
+      <c r="B87" s="23"/>
       <c r="C87" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="E87" s="10" t="s">
         <v>117</v>
       </c>
       <c r="F87" s="1"/>
@@ -2446,14 +2437,14 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="11"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E88" s="22" t="s">
+      <c r="E88" s="10" t="s">
         <v>118</v>
       </c>
       <c r="F88" s="1"/>
@@ -2461,14 +2452,14 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="11"/>
+      <c r="B89" s="23"/>
       <c r="C89" s="1" t="s">
         <v>119</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E89" s="22" t="s">
+      <c r="E89" s="10" t="s">
         <v>120</v>
       </c>
       <c r="F89" s="1"/>
@@ -2476,14 +2467,14 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="11"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E90" s="22" t="s">
+      <c r="E90" s="10" t="s">
         <v>68</v>
       </c>
       <c r="F90" s="1"/>
@@ -2491,14 +2482,14 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="11"/>
+      <c r="B91" s="23"/>
       <c r="C91" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E91" s="22" t="s">
+      <c r="E91" s="10" t="s">
         <v>69</v>
       </c>
       <c r="F91" s="1"/>
@@ -2506,14 +2497,14 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="11"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E92" s="22" t="s">
+      <c r="E92" s="10" t="s">
         <v>70</v>
       </c>
       <c r="F92" s="1"/>
@@ -2521,14 +2512,14 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="12"/>
+      <c r="B93" s="24"/>
       <c r="C93" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E93" s="23" t="s">
+      <c r="E93" s="11" t="s">
         <v>71</v>
       </c>
       <c r="F93" s="1"/>
@@ -2537,6 +2528,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B59:B70"/>
     <mergeCell ref="B72:E72"/>
     <mergeCell ref="B74:B83"/>
     <mergeCell ref="B84:B93"/>
@@ -2544,20 +2540,13 @@
     <mergeCell ref="B37:B45"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="B49:B58"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="B15:B23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B59:B70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="K27" r:id="rId1" xr:uid="{28D90410-5319-45DE-90F8-7DB67515DF4C}"/>
     <hyperlink ref="K28" r:id="rId2" xr:uid="{903CDCAB-1A05-48C7-9F7B-E1FA4D1E14E5}"/>
-    <hyperlink ref="K7" r:id="rId3" xr:uid="{CAB0EC3F-577A-4681-AC1E-DE90B3194CDB}"/>
-    <hyperlink ref="K11" r:id="rId4" xr:uid="{3D06D9F1-7B5B-428B-800D-35F1E77BB735}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/S_A MPS FESTO_AKIM.xlsx
+++ b/S_A MPS FESTO_AKIM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akim\Documents\LAB AUTO\I4_0\AR\REPO_GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3ACFDA-2597-4CE1-B2D2-170E85578635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7963D0-4D6C-4D2D-82BF-3933E8FE133A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{0CAA95B6-6E25-4EA0-9167-AD614239DF51}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="160">
   <si>
     <t>SORTING - CLASIFICACION</t>
   </si>
@@ -336,15 +336,6 @@
     <t>Start_RA</t>
   </si>
   <si>
-    <t>SORTING - DISTRIBUCIÓN</t>
-  </si>
-  <si>
-    <t>SORTING - ALMACENAMIENTO</t>
-  </si>
-  <si>
-    <t>SORTING - PICK AND PLACE</t>
-  </si>
-  <si>
     <t>Base disponible (“Part_AV” = part available)</t>
   </si>
   <si>
@@ -460,6 +451,60 @@
   </si>
   <si>
     <t>https://www.festo.com/us/en/a/download-document/datasheet/152619</t>
+  </si>
+  <si>
+    <t>https://github.com/TKim1994/1IND54_REPO/raw/master/_Resources/Distributing/007347_Micro_Switch_S_3_E_short.pdf</t>
+  </si>
+  <si>
+    <t>Interruptor de vacío</t>
+  </si>
+  <si>
+    <t>Micro switch</t>
+  </si>
+  <si>
+    <t>https://www.festo.com/us/en/a/download-document/datasheet/150857</t>
+  </si>
+  <si>
+    <t>Pulsador NO</t>
+  </si>
+  <si>
+    <t>Pulsador NC</t>
+  </si>
+  <si>
+    <t>Actuador1</t>
+  </si>
+  <si>
+    <t>Actuador2</t>
+  </si>
+  <si>
+    <t>Actuador3</t>
+  </si>
+  <si>
+    <t>Actuador4</t>
+  </si>
+  <si>
+    <t>Actuador5</t>
+  </si>
+  <si>
+    <t>Actuador6</t>
+  </si>
+  <si>
+    <t>Actuador7</t>
+  </si>
+  <si>
+    <t>Actuador8</t>
+  </si>
+  <si>
+    <t>Actuador9</t>
+  </si>
+  <si>
+    <t>DISTRIBUTING - DISTRIBUCIÓN</t>
+  </si>
+  <si>
+    <t>STORING - ALMACENAMIENTO</t>
+  </si>
+  <si>
+    <t>PICK AND PLACE - ENSAMBLAJE</t>
   </si>
 </sst>
 </file>
@@ -708,6 +753,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -717,15 +789,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -733,24 +796,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1070,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D88222-EFC2-4940-A561-3CF6F68EF468}">
   <dimension ref="B1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:K31"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,20 +1133,20 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1119,11 +1164,11 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1139,14 +1184,14 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="23"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1160,14 +1205,14 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="23"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1181,14 +1226,14 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
         <v>129</v>
       </c>
-      <c r="J6" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="23"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1202,14 +1247,14 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="23"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1224,7 +1269,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="23"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1238,14 +1283,14 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="23"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1260,7 +1305,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="23"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
@@ -1274,14 +1319,14 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="23"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1296,7 +1341,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1311,7 +1356,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
@@ -1326,7 +1371,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1343,7 +1388,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
@@ -1358,7 +1403,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="23"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
@@ -1373,7 +1418,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="23"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
@@ -1388,7 +1433,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="23"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -1401,7 +1446,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1416,7 +1461,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="23"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
@@ -1431,7 +1476,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="23"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1446,7 +1491,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="24"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="3" t="s">
         <v>61</v>
       </c>
@@ -1462,20 +1507,20 @@
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
+      <c r="B25" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
       <c r="F25" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1494,7 +1539,7 @@
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="24" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1510,17 +1555,17 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="23"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1534,17 +1579,17 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="23"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
@@ -1558,14 +1603,17 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" t="s">
-        <v>126</v>
+        <v>123</v>
+      </c>
+      <c r="J29" t="s">
+        <v>143</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
+      <c r="B30" s="24"/>
       <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
@@ -1579,11 +1627,17 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="J30" t="s">
+        <v>144</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="23"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="1" t="s">
         <v>73</v>
       </c>
@@ -1597,11 +1651,17 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" t="s">
-        <v>128</v>
+        <v>125</v>
+      </c>
+      <c r="J31" t="s">
+        <v>144</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
+      <c r="B32" s="24"/>
       <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1615,14 +1675,17 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J32" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B33" s="23"/>
+        <v>132</v>
+      </c>
+      <c r="K32" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="24"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>17</v>
@@ -1634,11 +1697,11 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B34" s="23"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" s="24"/>
       <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1652,11 +1715,14 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="23"/>
+        <v>133</v>
+      </c>
+      <c r="J34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" s="24"/>
       <c r="C35" s="1" t="s">
         <v>53</v>
       </c>
@@ -1670,11 +1736,14 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="24"/>
+        <v>134</v>
+      </c>
+      <c r="J35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="25"/>
       <c r="C36" s="3" t="s">
         <v>41</v>
       </c>
@@ -1688,11 +1757,14 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B37" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1707,9 +1779,12 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B38" s="23"/>
+      <c r="I37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" s="24"/>
       <c r="C38" s="1" t="s">
         <v>56</v>
       </c>
@@ -1722,9 +1797,12 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="23"/>
+      <c r="I38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" s="24"/>
       <c r="C39" s="1" t="s">
         <v>80</v>
       </c>
@@ -1737,9 +1815,12 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B40" s="23"/>
+      <c r="I39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="24"/>
       <c r="C40" s="1" t="s">
         <v>57</v>
       </c>
@@ -1752,9 +1833,12 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B41" s="23"/>
+      <c r="I40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="24"/>
       <c r="C41" s="1" t="s">
         <v>81</v>
       </c>
@@ -1767,9 +1851,12 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="23"/>
+      <c r="I41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="24"/>
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
@@ -1782,9 +1869,12 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="23"/>
+      <c r="I42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="24"/>
       <c r="C43" s="1" t="s">
         <v>59</v>
       </c>
@@ -1797,9 +1887,12 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="23"/>
+      <c r="I43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="24"/>
       <c r="C44" s="1" t="s">
         <v>60</v>
       </c>
@@ -1812,9 +1905,12 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="24"/>
+      <c r="I44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="25"/>
       <c r="C45" s="3" t="s">
         <v>61</v>
       </c>
@@ -1827,26 +1923,29 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="28"/>
+      <c r="I45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
       <c r="C48" s="5" t="s">
         <v>29</v>
@@ -1862,7 +1961,7 @@
       <c r="H48" s="13"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="24" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1879,7 +1978,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="23"/>
+      <c r="B50" s="24"/>
       <c r="C50" s="1" t="s">
         <v>37</v>
       </c>
@@ -1894,7 +1993,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="23"/>
+      <c r="B51" s="24"/>
       <c r="C51" s="1" t="s">
         <v>38</v>
       </c>
@@ -1909,7 +2008,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="23"/>
+      <c r="B52" s="24"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
         <v>7</v>
@@ -1922,7 +2021,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="23"/>
+      <c r="B53" s="24"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
         <v>10</v>
@@ -1935,7 +2034,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="23"/>
+      <c r="B54" s="24"/>
       <c r="C54" s="1" t="s">
         <v>90</v>
       </c>
@@ -1950,7 +2049,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="23"/>
+      <c r="B55" s="24"/>
       <c r="C55" s="1" t="s">
         <v>93</v>
       </c>
@@ -1965,7 +2064,7 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="23"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="1" t="s">
         <v>40</v>
       </c>
@@ -1980,7 +2079,7 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="23"/>
+      <c r="B57" s="24"/>
       <c r="C57" s="1" t="s">
         <v>53</v>
       </c>
@@ -1995,7 +2094,7 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="24"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="3" t="s">
         <v>41</v>
       </c>
@@ -2010,7 +2109,7 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -2027,7 +2126,7 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="23"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="1" t="s">
         <v>56</v>
       </c>
@@ -2042,7 +2141,7 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="23"/>
+      <c r="B61" s="24"/>
       <c r="C61" s="1" t="s">
         <v>80</v>
       </c>
@@ -2057,7 +2156,7 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="23"/>
+      <c r="B62" s="24"/>
       <c r="C62" s="1" t="s">
         <v>57</v>
       </c>
@@ -2072,7 +2171,7 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="23"/>
+      <c r="B63" s="24"/>
       <c r="C63" s="1" t="s">
         <v>81</v>
       </c>
@@ -2087,7 +2186,7 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="23"/>
+      <c r="B64" s="24"/>
       <c r="C64" s="1" t="s">
         <v>101</v>
       </c>
@@ -2102,7 +2201,7 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="23"/>
+      <c r="B65" s="24"/>
       <c r="C65" s="1" t="s">
         <v>102</v>
       </c>
@@ -2117,7 +2216,7 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="23"/>
+      <c r="B66" s="24"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
         <v>18</v>
@@ -2130,7 +2229,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="23"/>
+      <c r="B67" s="24"/>
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2145,7 +2244,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="23"/>
+      <c r="B68" s="24"/>
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2160,7 +2259,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="23"/>
+      <c r="B69" s="24"/>
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2175,7 +2274,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="24"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="3" t="s">
         <v>61</v>
       </c>
@@ -2191,20 +2290,20 @@
     </row>
     <row r="71" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="22"/>
+      <c r="B72" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="31"/>
       <c r="F72" s="17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G72" s="17" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2223,7 +2322,7 @@
       <c r="H73" s="13"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="24" t="s">
         <v>62</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2233,14 +2332,14 @@
         <v>1</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="23"/>
+      <c r="B75" s="24"/>
       <c r="C75" s="1" t="s">
         <v>36</v>
       </c>
@@ -2248,14 +2347,14 @@
         <v>5</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="23"/>
+      <c r="B76" s="24"/>
       <c r="C76" s="1" t="s">
         <v>37</v>
       </c>
@@ -2263,14 +2362,14 @@
         <v>5</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="23"/>
+      <c r="B77" s="24"/>
       <c r="C77" s="1" t="s">
         <v>38</v>
       </c>
@@ -2278,14 +2377,14 @@
         <v>7</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="23"/>
+      <c r="B78" s="24"/>
       <c r="C78" s="1" t="s">
         <v>72</v>
       </c>
@@ -2293,29 +2392,29 @@
         <v>10</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="23"/>
+      <c r="B79" s="24"/>
       <c r="C79" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B80" s="23"/>
+      <c r="B80" s="24"/>
       <c r="C80" s="6" t="s">
         <v>33</v>
       </c>
@@ -2323,14 +2422,14 @@
         <v>15</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="23"/>
+      <c r="B81" s="24"/>
       <c r="C81" s="1" t="s">
         <v>40</v>
       </c>
@@ -2345,7 +2444,7 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="23"/>
+      <c r="B82" s="24"/>
       <c r="C82" s="1" t="s">
         <v>53</v>
       </c>
@@ -2360,7 +2459,7 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="24"/>
+      <c r="B83" s="25"/>
       <c r="C83" s="3" t="s">
         <v>41</v>
       </c>
@@ -2375,7 +2474,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -2392,7 +2491,7 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="23"/>
+      <c r="B85" s="24"/>
       <c r="C85" s="1" t="s">
         <v>55</v>
       </c>
@@ -2400,29 +2499,29 @@
         <v>4</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="23"/>
+      <c r="B86" s="24"/>
       <c r="C86" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="23"/>
+      <c r="B87" s="24"/>
       <c r="C87" s="1" t="s">
         <v>56</v>
       </c>
@@ -2430,14 +2529,14 @@
         <v>9</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="23"/>
+      <c r="B88" s="24"/>
       <c r="C88" s="1" t="s">
         <v>57</v>
       </c>
@@ -2445,29 +2544,29 @@
         <v>12</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="23"/>
+      <c r="B89" s="24"/>
       <c r="C89" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="23"/>
+      <c r="B90" s="24"/>
       <c r="C90" s="1" t="s">
         <v>58</v>
       </c>
@@ -2482,7 +2581,7 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="23"/>
+      <c r="B91" s="24"/>
       <c r="C91" s="1" t="s">
         <v>59</v>
       </c>
@@ -2497,7 +2596,7 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="23"/>
+      <c r="B92" s="24"/>
       <c r="C92" s="1" t="s">
         <v>60</v>
       </c>
@@ -2512,7 +2611,7 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="24"/>
+      <c r="B93" s="25"/>
       <c r="C93" s="3" t="s">
         <v>61</v>
       </c>
@@ -2528,11 +2627,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="B15:B23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B59:B70"/>
     <mergeCell ref="B72:E72"/>
     <mergeCell ref="B74:B83"/>
     <mergeCell ref="B84:B93"/>
@@ -2540,6 +2634,11 @@
     <mergeCell ref="B37:B45"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="B49:B58"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B59:B70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/S_A MPS FESTO_AKIM.xlsx
+++ b/S_A MPS FESTO_AKIM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akim\Documents\LAB AUTO\I4_0\AR\REPO_GIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akim\Documents\LAB AUTO\I4_0\AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7963D0-4D6C-4D2D-82BF-3933E8FE133A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED7390F-F35E-4006-9995-D86A2CEBB3C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{0CAA95B6-6E25-4EA0-9167-AD614239DF51}"/>
   </bookViews>
@@ -753,6 +753,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,15 +789,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -778,24 +796,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1115,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71D88222-EFC2-4940-A561-3CF6F68EF468}">
   <dimension ref="B1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,12 +1133,12 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="22"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="12" t="s">
         <v>138</v>
       </c>
@@ -1168,7 +1168,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -1191,7 +1191,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
+      <c r="B5" s="23"/>
       <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
+      <c r="B6" s="23"/>
       <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1254,7 +1254,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="24"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="24"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
@@ -1290,7 +1290,7 @@
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="24"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="24"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="1" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="24"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="24"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
@@ -1356,7 +1356,7 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="25"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1388,7 +1388,7 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
@@ -1403,7 +1403,7 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="1" t="s">
         <v>56</v>
       </c>
@@ -1418,7 +1418,7 @@
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="24"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -1446,7 +1446,7 @@
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="24"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1461,7 +1461,7 @@
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="24"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="1" t="s">
         <v>59</v>
       </c>
@@ -1476,7 +1476,7 @@
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="24"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="1" t="s">
         <v>60</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="H22" s="1"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="25"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="3" t="s">
         <v>61</v>
       </c>
@@ -1507,12 +1507,12 @@
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="14" t="s">
         <v>138</v>
       </c>
@@ -1539,7 +1539,7 @@
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1565,7 +1565,7 @@
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="24"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="1" t="s">
         <v>36</v>
       </c>
@@ -1589,7 +1589,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="24"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="1" t="s">
         <v>38</v>
       </c>
@@ -1613,7 +1613,7 @@
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="24"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="1" t="s">
         <v>72</v>
       </c>
@@ -1637,7 +1637,7 @@
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="24"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="1" t="s">
         <v>73</v>
       </c>
@@ -1661,7 +1661,7 @@
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="24"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="1" t="s">
         <v>35</v>
       </c>
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="24"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
         <v>17</v>
@@ -1701,7 +1701,7 @@
       </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
@@ -1722,7 +1722,7 @@
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="24"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="1" t="s">
         <v>53</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
     </row>
     <row r="36" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="25"/>
+      <c r="B36" s="24"/>
       <c r="C36" s="3" t="s">
         <v>41</v>
       </c>
@@ -1764,7 +1764,7 @@
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C37" s="4" t="s">
@@ -1784,7 +1784,7 @@
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="24"/>
+      <c r="B38" s="23"/>
       <c r="C38" s="1" t="s">
         <v>56</v>
       </c>
@@ -1802,7 +1802,7 @@
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="24"/>
+      <c r="B39" s="23"/>
       <c r="C39" s="1" t="s">
         <v>80</v>
       </c>
@@ -1820,7 +1820,7 @@
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="24"/>
+      <c r="B40" s="23"/>
       <c r="C40" s="1" t="s">
         <v>57</v>
       </c>
@@ -1838,7 +1838,7 @@
       </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" s="24"/>
+      <c r="B41" s="23"/>
       <c r="C41" s="1" t="s">
         <v>81</v>
       </c>
@@ -1856,7 +1856,7 @@
       </c>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" s="24"/>
+      <c r="B42" s="23"/>
       <c r="C42" s="1" t="s">
         <v>58</v>
       </c>
@@ -1874,7 +1874,7 @@
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="24"/>
+      <c r="B43" s="23"/>
       <c r="C43" s="1" t="s">
         <v>59</v>
       </c>
@@ -1892,7 +1892,7 @@
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" s="24"/>
+      <c r="B44" s="23"/>
       <c r="C44" s="1" t="s">
         <v>60</v>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="25"/>
+      <c r="B45" s="24"/>
       <c r="C45" s="3" t="s">
         <v>61</v>
       </c>
@@ -1929,12 +1929,12 @@
     </row>
     <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="28"/>
       <c r="F47" s="15" t="s">
         <v>138</v>
       </c>
@@ -1961,7 +1961,7 @@
       <c r="H48" s="13"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1978,7 +1978,7 @@
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="24"/>
+      <c r="B50" s="23"/>
       <c r="C50" s="1" t="s">
         <v>37</v>
       </c>
@@ -1993,7 +1993,7 @@
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="24"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="1" t="s">
         <v>38</v>
       </c>
@@ -2008,7 +2008,7 @@
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="24"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
         <v>7</v>
@@ -2021,7 +2021,7 @@
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="24"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
         <v>10</v>
@@ -2034,7 +2034,7 @@
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="24"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="1" t="s">
         <v>90</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="24"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="1" t="s">
         <v>93</v>
       </c>
@@ -2064,7 +2064,7 @@
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" s="24"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="1" t="s">
         <v>40</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" s="24"/>
+      <c r="B57" s="23"/>
       <c r="C57" s="1" t="s">
         <v>53</v>
       </c>
@@ -2094,7 +2094,7 @@
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="25"/>
+      <c r="B58" s="24"/>
       <c r="C58" s="3" t="s">
         <v>41</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -2126,7 +2126,7 @@
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" s="24"/>
+      <c r="B60" s="23"/>
       <c r="C60" s="1" t="s">
         <v>56</v>
       </c>
@@ -2141,7 +2141,7 @@
       <c r="H60" s="1"/>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="24"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="1" t="s">
         <v>80</v>
       </c>
@@ -2156,7 +2156,7 @@
       <c r="H61" s="1"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="24"/>
+      <c r="B62" s="23"/>
       <c r="C62" s="1" t="s">
         <v>57</v>
       </c>
@@ -2171,7 +2171,7 @@
       <c r="H62" s="1"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="24"/>
+      <c r="B63" s="23"/>
       <c r="C63" s="1" t="s">
         <v>81</v>
       </c>
@@ -2186,7 +2186,7 @@
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="24"/>
+      <c r="B64" s="23"/>
       <c r="C64" s="1" t="s">
         <v>101</v>
       </c>
@@ -2201,7 +2201,7 @@
       <c r="H64" s="1"/>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="24"/>
+      <c r="B65" s="23"/>
       <c r="C65" s="1" t="s">
         <v>102</v>
       </c>
@@ -2216,7 +2216,7 @@
       <c r="H65" s="1"/>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="24"/>
+      <c r="B66" s="23"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="s">
         <v>18</v>
@@ -2229,7 +2229,7 @@
       <c r="H66" s="1"/>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="24"/>
+      <c r="B67" s="23"/>
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2244,7 +2244,7 @@
       <c r="H67" s="1"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="24"/>
+      <c r="B68" s="23"/>
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="H68" s="1"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="24"/>
+      <c r="B69" s="23"/>
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2274,7 +2274,7 @@
       <c r="H69" s="1"/>
     </row>
     <row r="70" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="25"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="3" t="s">
         <v>61</v>
       </c>
@@ -2290,12 +2290,12 @@
     </row>
     <row r="71" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="31"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="22"/>
       <c r="F72" s="17" t="s">
         <v>138</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="H73" s="13"/>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" s="24" t="s">
+      <c r="B74" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2339,7 +2339,7 @@
       <c r="H74" s="1"/>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" s="24"/>
+      <c r="B75" s="23"/>
       <c r="C75" s="1" t="s">
         <v>36</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="H75" s="1"/>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" s="24"/>
+      <c r="B76" s="23"/>
       <c r="C76" s="1" t="s">
         <v>37</v>
       </c>
@@ -2369,7 +2369,7 @@
       <c r="H76" s="1"/>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="24"/>
+      <c r="B77" s="23"/>
       <c r="C77" s="1" t="s">
         <v>38</v>
       </c>
@@ -2384,7 +2384,7 @@
       <c r="H77" s="1"/>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" s="24"/>
+      <c r="B78" s="23"/>
       <c r="C78" s="1" t="s">
         <v>72</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="H78" s="1"/>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" s="24"/>
+      <c r="B79" s="23"/>
       <c r="C79" s="1" t="s">
         <v>104</v>
       </c>
@@ -2414,7 +2414,7 @@
       <c r="H79" s="1"/>
     </row>
     <row r="80" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B80" s="24"/>
+      <c r="B80" s="23"/>
       <c r="C80" s="6" t="s">
         <v>33</v>
       </c>
@@ -2429,7 +2429,7 @@
       <c r="H80" s="18"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B81" s="24"/>
+      <c r="B81" s="23"/>
       <c r="C81" s="1" t="s">
         <v>40</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="H81" s="1"/>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B82" s="24"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="1" t="s">
         <v>53</v>
       </c>
@@ -2459,7 +2459,7 @@
       <c r="H82" s="1"/>
     </row>
     <row r="83" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="25"/>
+      <c r="B83" s="24"/>
       <c r="C83" s="3" t="s">
         <v>41</v>
       </c>
@@ -2474,7 +2474,7 @@
       <c r="H83" s="1"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B84" s="23" t="s">
+      <c r="B84" s="25" t="s">
         <v>63</v>
       </c>
       <c r="C84" s="4" t="s">
@@ -2491,7 +2491,7 @@
       <c r="H84" s="1"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B85" s="24"/>
+      <c r="B85" s="23"/>
       <c r="C85" s="1" t="s">
         <v>55</v>
       </c>
@@ -2506,7 +2506,7 @@
       <c r="H85" s="1"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B86" s="24"/>
+      <c r="B86" s="23"/>
       <c r="C86" s="1" t="s">
         <v>111</v>
       </c>
@@ -2521,7 +2521,7 @@
       <c r="H86" s="1"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B87" s="24"/>
+      <c r="B87" s="23"/>
       <c r="C87" s="1" t="s">
         <v>56</v>
       </c>
@@ -2536,7 +2536,7 @@
       <c r="H87" s="1"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="24"/>
+      <c r="B88" s="23"/>
       <c r="C88" s="1" t="s">
         <v>57</v>
       </c>
@@ -2551,7 +2551,7 @@
       <c r="H88" s="1"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="24"/>
+      <c r="B89" s="23"/>
       <c r="C89" s="1" t="s">
         <v>116</v>
       </c>
@@ -2566,7 +2566,7 @@
       <c r="H89" s="1"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="24"/>
+      <c r="B90" s="23"/>
       <c r="C90" s="1" t="s">
         <v>58</v>
       </c>
@@ -2581,7 +2581,7 @@
       <c r="H90" s="1"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B91" s="24"/>
+      <c r="B91" s="23"/>
       <c r="C91" s="1" t="s">
         <v>59</v>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="H91" s="1"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B92" s="24"/>
+      <c r="B92" s="23"/>
       <c r="C92" s="1" t="s">
         <v>60</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="H92" s="1"/>
     </row>
     <row r="93" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="25"/>
+      <c r="B93" s="24"/>
       <c r="C93" s="3" t="s">
         <v>61</v>
       </c>
@@ -2627,6 +2627,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:B14"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B59:B70"/>
     <mergeCell ref="B72:E72"/>
     <mergeCell ref="B74:B83"/>
     <mergeCell ref="B84:B93"/>
@@ -2634,11 +2639,6 @@
     <mergeCell ref="B37:B45"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="B49:B58"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B4:B14"/>
-    <mergeCell ref="B15:B23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B59:B70"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
